--- a/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>61,24; 72,82</t>
+          <t>60,98; 72,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58,14; 67,08</t>
+          <t>58,16; 67,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,19; 68,55</t>
+          <t>61,12; 68,66</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,6; 75,28</t>
+          <t>64,65; 75,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,7; 72,47</t>
+          <t>64,21; 72,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,99; 72,53</t>
+          <t>66,04; 72,2</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,27; 76,24</t>
+          <t>66,4; 76,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,55; 70,0</t>
+          <t>61,47; 69,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,3; 71,72</t>
+          <t>64,78; 71,46</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,41; 75,68</t>
+          <t>63,61; 76,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,06; 65,52</t>
+          <t>54,52; 65,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,01; 68,47</t>
+          <t>60,34; 68,65</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,89; 70,12</t>
+          <t>58,94; 70,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,01; 59,43</t>
+          <t>49,69; 59,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,38; 62,68</t>
+          <t>55,4; 62,89</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,25; 79,27</t>
+          <t>70,66; 79,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>59,46; 68,9</t>
+          <t>59,26; 68,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66,09; 72,99</t>
+          <t>66,42; 72,67</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>59,35; 68,22</t>
+          <t>59,6; 68,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>32,33; 60,83</t>
+          <t>33,13; 60,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>42,61; 62,82</t>
+          <t>42,45; 62,87</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>86,12; 91,14</t>
+          <t>85,98; 91,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>83,24; 87,4</t>
+          <t>82,94; 87,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>85,32; 88,63</t>
+          <t>85,18; 88,78</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>72,08; 75,86</t>
+          <t>71,95; 75,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>58,68; 68,39</t>
+          <t>58,43; 68,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>66,02; 71,16</t>
+          <t>65,16; 71,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,6 +633,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>67,24%</t>
+          <t>83,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>62,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>64,88%</t>
+          <t>67,29%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>67,72%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>84,32%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>63,47%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>64,33%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>83,9%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>65,41%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>65,99%</t>
         </is>
       </c>
     </row>
@@ -579,17 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60,98; 72,52</t>
+          <t>78,3; 87,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58,16; 67,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,12; 68,66</t>
+          <t>61,42; 72,41</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>61,54; 72,98</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>79,17; 88,64</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>56,97; 68,72</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>59,95; 68,52</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>80,39; 86,93</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>61,35; 69,79</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>62,4; 69,63</t>
         </is>
       </c>
     </row>
@@ -606,17 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>70,1%</t>
+          <t>76,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>68,49%</t>
+          <t>72,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>69,25%</t>
+          <t>73,66%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>71,73%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>65,83%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>64,81%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>63,14%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>68,97%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>71,14%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>68,45%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>68,3%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>70,27%</t>
         </is>
       </c>
     </row>
@@ -629,17 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,65; 75,41</t>
+          <t>72,43; 80,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,21; 72,11</t>
+          <t>67,71; 76,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,04; 72,2</t>
+          <t>69,65; 77,51</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>66,34; 76,76</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>61,71; 70,01</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60,33; 68,93</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>58,5; 67,25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>64,68; 72,61</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>68,14; 73,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>65,65; 71,55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>65,19; 71,05</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>66,97; 73,12</t>
         </is>
       </c>
     </row>
@@ -656,17 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>71,52%</t>
+          <t>87,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>65,72%</t>
+          <t>69,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68,41%</t>
+          <t>87,18%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>73,43%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>79,63%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67,51%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>78,34%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>68,24%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83,31%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>68,69%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>82,64%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>70,65%</t>
         </is>
       </c>
     </row>
@@ -679,17 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,4; 76,47</t>
+          <t>83,13; 90,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,47; 69,59</t>
+          <t>64,27; 74,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,78; 71,46</t>
+          <t>83,35; 90,59</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>68,36; 77,91</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>75,45; 83,96</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>61,75; 72,51</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>73,41; 82,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>64,17; 72,02</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>80,06; 85,7</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>65,06; 72,39</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>79,59; 85,46</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>67,37; 73,78</t>
         </is>
       </c>
     </row>
@@ -706,17 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>70,15%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>70,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>64,14%</t>
+          <t>65,77%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>73,14%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>81,74%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>59,13%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>58,19%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>63,23%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>84,26%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>64,8%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>61,91%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>67,56%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,61; 76,91</t>
+          <t>82,43; 90,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,52; 65,62</t>
+          <t>66,58; 74,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,34; 68,65</t>
+          <t>60,9; 70,7</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>67,6; 79,48</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>77,72; 85,32</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>55,36; 63,01</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>52,86; 63,42</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>58,27; 69,25</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>81,67; 86,74</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>62,18; 67,38</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>58,42; 65,54</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>63,59; 71,7</t>
         </is>
       </c>
     </row>
@@ -756,17 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>64,59%</t>
+          <t>74,68%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>54,45%</t>
+          <t>68,58%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>59,11%</t>
+          <t>92,31%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>65,61%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>70,39%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>59,73%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>91,62%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>54,99%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>72,52%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>64,09%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>91,96%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>59,87%</t>
         </is>
       </c>
     </row>
@@ -779,17 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,94; 70,29</t>
+          <t>68,36; 80,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,69; 59,41</t>
+          <t>61,7; 74,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,4; 62,89</t>
+          <t>88,02; 95,33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>59,85; 71,11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>63,51; 76,47</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>51,8; 65,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>87,39; 95,03</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>50,03; 59,71</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>68,1; 76,86</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59,64; 68,88</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>88,81; 94,21</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>56,06; 63,54</t>
         </is>
       </c>
     </row>
@@ -806,17 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>75,45%</t>
+          <t>84,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>64,24%</t>
+          <t>74,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>69,86%</t>
+          <t>80,02%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>76,51%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>76,2%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>71,48%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>69,2%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>65,1%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>80,09%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>73,19%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>74,52%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>70,83%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,66; 79,55</t>
+          <t>79,47; 88,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>59,26; 68,46</t>
+          <t>69,12; 79,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66,42; 72,67</t>
+          <t>74,81; 84,95</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>71,96; 80,69</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>70,74; 81,1</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>65,46; 76,81</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>62,93; 74,44</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>60,07; 69,45</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>76,57; 82,92</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>69,39; 76,92</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>70,45; 78,1</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>67,25; 73,6</t>
         </is>
       </c>
     </row>
@@ -856,17 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>64,24%</t>
+          <t>84,51%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>51,33%</t>
+          <t>78,76%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>57,01%</t>
+          <t>72,98%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>69,04%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>76,71%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>71,07%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>69,65%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>54,36%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>80,52%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>74,82%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>71,27%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>60,82%</t>
         </is>
       </c>
     </row>
@@ -879,17 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>59,6; 68,46</t>
+          <t>81,45; 87,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,13; 60,81</t>
+          <t>75,44; 82,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>42,45; 62,87</t>
+          <t>68,79; 76,7</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>64,7; 73,1</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>73,21; 79,72</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>67,72; 74,49</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>65,78; 73,19</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>35,04; 64,35</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>78,18; 82,72</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>72,34; 77,16</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>68,49; 73,7</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>45,18; 66,82</t>
         </is>
       </c>
     </row>
@@ -906,17 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>77,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>85,37%</t>
+          <t>77,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>81,19%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>89,31%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>76,2%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>73,76%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>79,8%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>85,85%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>76,76%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>75,48%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>80,48%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>87,57%</t>
         </is>
       </c>
     </row>
@@ -929,17 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>85,98; 91,08</t>
+          <t>74,05; 80,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>82,94; 87,45</t>
+          <t>73,97; 80,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>85,18; 88,78</t>
+          <t>78,06; 83,85</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>86,92; 91,69</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>72,68; 79,47</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>70,81; 76,9</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>76,73; 82,78</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>83,55; 88,04</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>74,26; 78,83</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>73,04; 77,4</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>78,34; 82,43</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>85,74; 89,29</t>
         </is>
       </c>
     </row>
@@ -956,17 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>73,84%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>65,83%</t>
+          <t>74,09%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>69,6%</t>
+          <t>76,78%</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>75,84%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>75,96%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>67,49%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>71,48%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>67,55%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>78,66%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>70,72%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>74,07%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>71,45%</t>
         </is>
       </c>
     </row>
@@ -979,17 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>71,95; 75,63</t>
+          <t>80,08; 83,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>58,43; 68,39</t>
+          <t>72,57; 75,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>65,16; 71,22</t>
+          <t>75,24; 78,26</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>74,09; 77,52</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>74,28; 77,33</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>66,01; 69,05</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>69,95; 73,08</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>59,85; 70,15</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>77,57; 79,67</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>69,67; 71,92</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>72,99; 75,14</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>66,57; 73,01</t>
         </is>
       </c>
     </row>
@@ -1001,15 +1911,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,3; 87,7</t>
+          <t>78,75; 87,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,42; 72,41</t>
+          <t>60,1; 72,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61,54; 72,98</t>
+          <t>61,89; 73,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,17; 88,64</t>
+          <t>78,65; 88,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,97; 68,72</t>
+          <t>56,85; 68,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,95; 68,52</t>
+          <t>59,91; 68,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>80,39; 86,93</t>
+          <t>80,48; 87,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61,35; 69,79</t>
+          <t>61,57; 69,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>62,4; 69,63</t>
+          <t>62,53; 69,45</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,43; 80,29</t>
+          <t>72,62; 80,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,71; 76,13</t>
+          <t>67,82; 76,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,65; 77,51</t>
+          <t>69,43; 77,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,34; 76,76</t>
+          <t>66,68; 76,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,71; 70,01</t>
+          <t>61,65; 70,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,33; 68,93</t>
+          <t>60,23; 69,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,5; 67,25</t>
+          <t>59,02; 67,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>64,68; 72,61</t>
+          <t>65,12; 72,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>68,14; 73,85</t>
+          <t>68,19; 73,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>65,65; 71,55</t>
+          <t>65,47; 71,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>65,19; 71,05</t>
+          <t>65,05; 71,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>66,97; 73,12</t>
+          <t>67,11; 73,6</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,13; 90,65</t>
+          <t>82,7; 90,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,27; 74,85</t>
+          <t>64,47; 74,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,35; 90,59</t>
+          <t>83,2; 90,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68,36; 77,91</t>
+          <t>68,31; 78,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>75,45; 83,96</t>
+          <t>74,77; 83,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,75; 72,51</t>
+          <t>62,65; 72,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,41; 82,46</t>
+          <t>73,93; 82,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,17; 72,02</t>
+          <t>64,19; 72,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80,06; 85,7</t>
+          <t>80,31; 85,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>65,06; 72,39</t>
+          <t>65,19; 72,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>79,59; 85,46</t>
+          <t>79,41; 85,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>67,37; 73,78</t>
+          <t>67,46; 73,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,43; 90,39</t>
+          <t>82,86; 90,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,58; 74,0</t>
+          <t>66,5; 73,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,9; 70,7</t>
+          <t>60,54; 70,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,6; 79,48</t>
+          <t>66,78; 78,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,72; 85,32</t>
+          <t>77,69; 85,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,36; 63,01</t>
+          <t>55,32; 62,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,86; 63,42</t>
+          <t>52,76; 63,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,27; 69,25</t>
+          <t>58,08; 69,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,67; 86,74</t>
+          <t>81,28; 86,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62,18; 67,38</t>
+          <t>62,2; 67,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58,42; 65,54</t>
+          <t>58,02; 65,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>63,59; 71,7</t>
+          <t>63,45; 71,4</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>68,36; 80,68</t>
+          <t>68,13; 80,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,7; 74,98</t>
+          <t>62,11; 75,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>88,02; 95,33</t>
+          <t>87,75; 95,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59,85; 71,11</t>
+          <t>59,82; 71,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,51; 76,47</t>
+          <t>63,43; 76,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,8; 65,93</t>
+          <t>53,22; 66,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,39; 95,03</t>
+          <t>87,39; 94,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,03; 59,71</t>
+          <t>50,39; 59,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>68,1; 76,86</t>
+          <t>68,12; 77,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59,64; 68,88</t>
+          <t>59,1; 68,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>88,81; 94,21</t>
+          <t>88,85; 94,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>56,06; 63,54</t>
+          <t>56,22; 63,48</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>79,47; 88,41</t>
+          <t>79,29; 88,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,12; 79,63</t>
+          <t>69,11; 79,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,81; 84,95</t>
+          <t>74,81; 84,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71,96; 80,69</t>
+          <t>71,6; 80,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>70,74; 81,1</t>
+          <t>70,81; 80,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>65,46; 76,81</t>
+          <t>66,47; 76,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>62,93; 74,44</t>
+          <t>63,65; 74,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>60,07; 69,45</t>
+          <t>60,37; 69,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>76,57; 82,92</t>
+          <t>76,34; 83,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>69,39; 76,92</t>
+          <t>69,31; 76,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>70,45; 78,1</t>
+          <t>70,31; 78,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>67,25; 73,6</t>
+          <t>67,44; 73,84</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>81,45; 87,15</t>
+          <t>81,14; 87,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,44; 82,07</t>
+          <t>74,99; 81,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>68,79; 76,7</t>
+          <t>69,41; 76,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>64,7; 73,1</t>
+          <t>64,65; 73,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>73,21; 79,72</t>
+          <t>73,01; 79,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,72; 74,49</t>
+          <t>67,2; 74,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>65,78; 73,19</t>
+          <t>65,85; 73,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,04; 64,35</t>
+          <t>33,57; 64,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>78,18; 82,72</t>
+          <t>78,19; 82,84</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>72,34; 77,16</t>
+          <t>72,21; 77,08</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>68,49; 73,7</t>
+          <t>68,95; 73,88</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>45,18; 66,82</t>
+          <t>45,56; 66,79</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>74,05; 80,35</t>
+          <t>73,99; 80,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>73,97; 80,43</t>
+          <t>73,66; 80,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>78,06; 83,85</t>
+          <t>77,95; 83,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,92; 91,69</t>
+          <t>86,95; 91,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>72,68; 79,47</t>
+          <t>72,77; 79,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>70,81; 76,9</t>
+          <t>70,29; 76,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>76,73; 82,78</t>
+          <t>76,74; 82,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>83,55; 88,04</t>
+          <t>83,54; 87,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>74,26; 78,83</t>
+          <t>74,34; 78,78</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>73,04; 77,4</t>
+          <t>73,22; 77,46</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>78,34; 82,43</t>
+          <t>78,38; 82,51</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>85,74; 89,29</t>
+          <t>85,97; 89,2</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>80,08; 83,06</t>
+          <t>79,88; 82,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>72,57; 75,58</t>
+          <t>72,61; 75,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>75,24; 78,26</t>
+          <t>75,25; 78,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>74,09; 77,52</t>
+          <t>74,11; 77,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>74,28; 77,33</t>
+          <t>74,35; 77,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>66,01; 69,05</t>
+          <t>65,73; 69,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>69,95; 73,08</t>
+          <t>69,91; 73,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>59,85; 70,15</t>
+          <t>59,94; 70,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>77,57; 79,67</t>
+          <t>77,7; 79,68</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>69,67; 71,92</t>
+          <t>69,55; 71,73</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>72,99; 75,14</t>
+          <t>72,96; 75,19</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>66,57; 73,01</t>
+          <t>67,73; 72,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>67,72%</t>
+          <t>68,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>64,33%</t>
+          <t>64,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,99%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>65,99%</t>
+          <t>67,01%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>68,46; 78,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61,89; 73,3</t>
+          <t>62,81; 74,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,33; 69,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,91; 68,5</t>
+          <t>60,61; 69,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,0; 72,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>62,53; 69,45</t>
+          <t>63,53; 70,92</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,73%</t>
+          <t>72,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,97%</t>
+          <t>69,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>70,27%</t>
+          <t>70,62%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,68; 76,79</t>
+          <t>66,95; 77,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,12; 72,83</t>
+          <t>65,28; 73,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>67,11; 73,6</t>
+          <t>67,44; 74,0</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73,43%</t>
+          <t>73,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>68,24%</t>
+          <t>68,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>70,65%</t>
+          <t>71,05%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68,31; 78,26</t>
+          <t>68,87; 78,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,19; 72,38</t>
+          <t>64,4; 72,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>67,46; 73,71</t>
+          <t>67,88; 74,16</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>68,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>73,14%</t>
+          <t>73,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>55,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,23%</t>
+          <t>69,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>64,8%</t>
+          <t>61,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>67,56%</t>
+          <t>71,08%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,5; 73,84</t>
+          <t>62,88; 72,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66,78; 78,4</t>
+          <t>67,0; 78,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,32; 62,65</t>
+          <t>50,24; 61,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,08; 69,02</t>
+          <t>60,7; 81,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62,2; 67,44</t>
+          <t>57,88; 65,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>63,45; 71,4</t>
+          <t>65,94; 79,16</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>65,61%</t>
+          <t>65,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>54,99%</t>
+          <t>54,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>59,87%</t>
+          <t>59,76%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59,82; 71,32</t>
+          <t>59,73; 71,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,39; 59,91</t>
+          <t>50,4; 59,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>56,22; 63,48</t>
+          <t>56,17; 63,35</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>76,51%</t>
+          <t>76,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>65,1%</t>
+          <t>65,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>70,83%</t>
+          <t>71,11%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71,6; 80,32</t>
+          <t>71,99; 80,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>60,37; 69,76</t>
+          <t>60,38; 69,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>67,44; 73,84</t>
+          <t>67,71; 74,2</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>69,04%</t>
+          <t>68,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>47,88%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>60,82%</t>
+          <t>56,82%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>64,65; 73,0</t>
+          <t>63,97; 73,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,57; 64,37</t>
+          <t>23,29; 64,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>45,56; 66,79</t>
+          <t>35,83; 66,97</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>85,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>87,57%</t>
+          <t>89,1%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,95; 91,82</t>
+          <t>87,71; 96,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>83,54; 87,91</t>
+          <t>83,7; 87,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>85,97; 89,2</t>
+          <t>86,67; 93,62</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>75,84%</t>
+          <t>76,92%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>67,55%</t>
+          <t>65,97%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>71,45%</t>
+          <t>71,29%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>74,11; 77,77</t>
+          <t>74,41; 83,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>59,94; 70,21</t>
+          <t>52,89; 70,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>67,73; 72,97</t>
+          <t>64,84; 74,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,75; 87,8</t>
+          <t>79,06; 88,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,46; 78,86</t>
+          <t>68,25; 78,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,1; 72,14</t>
+          <t>61,5; 73,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,81; 74,81</t>
+          <t>62,46; 74,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>78,65; 88,23</t>
+          <t>79,46; 88,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,33; 69,91</t>
+          <t>57,86; 70,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,85; 68,56</t>
+          <t>57,74; 69,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>60,61; 69,36</t>
+          <t>59,94; 69,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>80,48; 87,25</t>
+          <t>80,37; 87,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65,0; 72,94</t>
+          <t>64,49; 72,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61,57; 69,7</t>
+          <t>61,07; 69,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>63,53; 70,92</t>
+          <t>63,58; 71,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,62; 80,19</t>
+          <t>72,55; 80,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,82; 76,55</t>
+          <t>67,73; 76,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,43; 77,44</t>
+          <t>69,44; 77,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,95; 77,29</t>
+          <t>66,14; 77,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,65; 70,07</t>
+          <t>61,39; 70,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,23; 69,06</t>
+          <t>60,53; 69,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,02; 67,49</t>
+          <t>58,61; 67,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,28; 73,03</t>
+          <t>65,44; 72,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>68,19; 73,85</t>
+          <t>68,32; 73,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>65,47; 71,5</t>
+          <t>65,25; 71,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>65,05; 71,03</t>
+          <t>64,97; 71,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>67,44; 74,0</t>
+          <t>67,18; 74,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,7; 90,98</t>
+          <t>82,5; 90,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,47; 74,93</t>
+          <t>64,6; 74,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,2; 90,36</t>
+          <t>83,3; 90,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68,87; 78,83</t>
+          <t>68,54; 77,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>74,77; 83,82</t>
+          <t>74,66; 83,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,65; 72,77</t>
+          <t>62,03; 72,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,93; 82,79</t>
+          <t>73,09; 82,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,4; 72,62</t>
+          <t>63,81; 72,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80,31; 85,93</t>
+          <t>80,3; 86,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>65,19; 72,58</t>
+          <t>64,88; 72,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>79,41; 85,09</t>
+          <t>79,61; 85,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>67,88; 74,16</t>
+          <t>67,77; 73,99</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,86; 90,43</t>
+          <t>82,65; 90,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,88; 72,85</t>
+          <t>62,98; 73,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,54; 70,67</t>
+          <t>60,66; 70,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,0; 78,86</t>
+          <t>67,24; 79,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,69; 85,6</t>
+          <t>77,26; 85,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,24; 61,23</t>
+          <t>49,7; 59,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,76; 63,3</t>
+          <t>52,92; 63,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>60,7; 81,88</t>
+          <t>61,29; 81,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,28; 86,74</t>
+          <t>81,2; 86,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57,88; 65,16</t>
+          <t>58,0; 65,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58,02; 65,38</t>
+          <t>58,36; 65,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>65,94; 79,16</t>
+          <t>65,85; 78,71</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>68,13; 80,27</t>
+          <t>68,47; 80,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,11; 75,08</t>
+          <t>61,37; 74,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,75; 95,48</t>
+          <t>88,06; 95,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59,73; 71,13</t>
+          <t>59,77; 71,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,43; 76,86</t>
+          <t>63,77; 76,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,22; 66,2</t>
+          <t>53,67; 67,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,39; 94,97</t>
+          <t>87,16; 94,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,4; 59,49</t>
+          <t>50,61; 59,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>68,12; 77,01</t>
+          <t>67,99; 76,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59,1; 68,8</t>
+          <t>59,74; 68,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>88,85; 94,33</t>
+          <t>89,21; 94,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>56,17; 63,35</t>
+          <t>55,74; 63,52</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>79,29; 88,12</t>
+          <t>79,76; 88,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,11; 79,61</t>
+          <t>69,43; 80,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,81; 84,33</t>
+          <t>74,85; 84,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71,99; 80,67</t>
+          <t>72,22; 80,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>70,81; 80,87</t>
+          <t>71,16; 81,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>66,47; 76,89</t>
+          <t>66,0; 76,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>63,65; 74,31</t>
+          <t>64,0; 75,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>60,38; 69,83</t>
+          <t>59,96; 69,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>76,34; 83,34</t>
+          <t>76,58; 83,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>69,31; 76,88</t>
+          <t>69,08; 76,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>70,31; 78,36</t>
+          <t>70,54; 78,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>67,71; 74,2</t>
+          <t>67,96; 74,27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>81,14; 87,38</t>
+          <t>81,02; 87,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>74,99; 81,79</t>
+          <t>75,17; 81,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69,41; 76,72</t>
+          <t>69,08; 76,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63,97; 73,03</t>
+          <t>63,91; 72,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>73,01; 79,54</t>
+          <t>73,31; 80,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,2; 74,73</t>
+          <t>67,39; 74,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>65,85; 73,04</t>
+          <t>66,19; 73,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,29; 64,5</t>
+          <t>23,36; 64,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>78,19; 82,84</t>
+          <t>78,25; 82,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>72,21; 77,08</t>
+          <t>72,47; 77,18</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>68,95; 73,88</t>
+          <t>68,8; 73,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>35,83; 66,97</t>
+          <t>36,86; 66,81</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>73,99; 80,28</t>
+          <t>74,01; 80,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>73,66; 80,19</t>
+          <t>74,11; 80,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>77,95; 83,75</t>
+          <t>78,23; 83,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>87,71; 96,32</t>
+          <t>87,86; 96,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>72,77; 79,22</t>
+          <t>72,98; 79,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>70,29; 76,88</t>
+          <t>70,24; 76,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>76,74; 82,62</t>
+          <t>76,68; 82,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>83,7; 87,93</t>
+          <t>83,53; 88,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>74,34; 78,78</t>
+          <t>74,41; 78,82</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>73,22; 77,46</t>
+          <t>73,27; 77,72</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>78,38; 82,51</t>
+          <t>78,39; 82,55</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>86,67; 93,62</t>
+          <t>86,7; 93,2</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>79,88; 82,84</t>
+          <t>80,16; 82,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>72,61; 75,79</t>
+          <t>72,57; 75,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>75,25; 78,3</t>
+          <t>75,34; 78,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>74,41; 83,33</t>
+          <t>74,57; 82,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>74,35; 77,32</t>
+          <t>74,51; 77,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>65,73; 69,16</t>
+          <t>65,95; 69,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>69,91; 73,02</t>
+          <t>69,93; 73,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>52,89; 70,72</t>
+          <t>53,85; 70,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>77,7; 79,68</t>
+          <t>77,7; 79,69</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>69,55; 71,73</t>
+          <t>69,55; 71,84</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>72,96; 75,19</t>
+          <t>73,05; 75,15</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>64,84; 74,42</t>
+          <t>64,96; 74,31</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>224321</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>216352</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>196599</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>214561</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>217511</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>183605</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>179921</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>188243</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>441831</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>399957</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>376520</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>402803</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>212399; 236996</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>200256; 231375</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>179682; 214591</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>194533; 232419</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>204976; 228650</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>165634; 200775</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>163671; 198047</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>173617; 200990</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>423236; 458482</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>373852; 422557</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>351565; 397624</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>382172; 427435</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>377465</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>362993</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>370217</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>305594</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>330479</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>339472</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>330298</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>305678</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>707945</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>702465</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>700515</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>611272</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>357742; 396453</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>340316; 384147</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>349000; 389185</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>279926; 327052</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>308165; 352658</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>317016; 362821</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>306595; 353169</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>289539; 321816</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>679796; 734624</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>669559; 731984</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>666340; 729930</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>581524; 641057</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>273748</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>224562</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>277717</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>231649</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>263943</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>230208</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>263459</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>236741</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>537692</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>454770</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>541176</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>468390</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>259053; 284440</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>207407; 240547</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>265349; 289084</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>214931; 244254</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>247459; 277919</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>211539; 248624</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>245820; 277760</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>220589; 249984</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>518305; 555510</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>429532; 478692</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>521355; 561124</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>446763; 487785</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>303441</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>254379</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>242773</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>225655</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>303617</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>214945</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>222277</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>317580</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>607058</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>469324</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>465050</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>543235</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>288491; 314709</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>235540; 273537</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>223924; 260212</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>206577; 242800</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>286978; 316662</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>192740; 232629</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>202150; 241092</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>280079; 374041</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>585014; 625608</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>441847; 497942</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>438330; 490752</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>503237; 601571</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>151823</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>145815</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>194979</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>117053</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>145477</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>130625</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>200278</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>114251</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>297300</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>276440</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>395256</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>231304</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>139201; 163799</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>130489; 158365</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>186000; 201012</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>106829; 127361</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>131805; 158337</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>117381; 146671</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>190514; 207074</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>105433; 124261</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>278741; 313242</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>257684; 296724</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>383429; 405883</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>215738; 245865</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>226079</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>205299</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>210559</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>207211</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>210421</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>200165</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>188323</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>167077</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>436501</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>405465</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>398881</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>374289</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>214468; 236976</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>190217; 220050</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>196935; 222809</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>194730; 217733</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>196525; 224715</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>184833; 214725</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>174172; 204922</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>153920; 177656</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>417379; 455039</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>382731; 425644</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>377580; 417536</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>357715; 390930</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>512093</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>519752</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>475963</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>430171</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>486960</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>492196</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>480115</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>404265</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>999053</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1011949</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>956078</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>834436</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>490963; 529472</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>496013; 539104</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>450532; 498889</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>398999; 453872</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>465373; 509824</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>466771; 518003</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>456250; 505347</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>197265; 544324</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>970954; 1025585</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>980081; 1043860</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>922957; 991570</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>541304; 981193</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>562257</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>599887</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>632155</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>850283</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>591729</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>603981</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>658427</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>613619</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1153986</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1203868</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1290582</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1463903</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>537793; 583531</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>575262; 623898</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>609122; 651882</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>815951; 895839</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>566786; 614967</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>575126; 629671</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>632661; 681719</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>596701; 628918</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1118586; 1184821</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1168604; 1239680</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1257063; 1323839</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1424489; 1531373</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2372</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2478</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2399</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2496</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2219</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2408</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3425</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>5076</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>4591</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>4886</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2631226</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2529041</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2600963</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>2582177</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>2550138</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2395197</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2523098</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2347455</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>5181365</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>4924238</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>5124061</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>4929632</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2588708; 2674029</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2477335; 2580460</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2552237; 2652505</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2503236; 2771638</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2501367; 2598566</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2340558; 2457196</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2468587; 2581803</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1916101; 2514675</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>5118185; 5248700</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>4842118; 5001553</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>5053561; 5198847</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>4492493; 5138820</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+          <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1967,7 +1967,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+          <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
